--- a/Supplementary Data/SupplementaryTable4Metadata.xlsx
+++ b/Supplementary Data/SupplementaryTable4Metadata.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16154\Documents\GitHub\scOh\Supplementary Data\CellType2Markers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kioh/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3384A5-46BC-410A-BA50-FF26E5E8B054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0EFD03E-6FF8-4C49-B5A6-55C2F4E7AFC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14746" xr2:uid="{290481D9-78E8-4160-B541-20C5056843C1}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="4" xr2:uid="{290481D9-78E8-4160-B541-20C5056843C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Condition_Dataset" sheetId="1" r:id="rId1"/>
-    <sheet name="CellType2_Dataset" sheetId="2" r:id="rId2"/>
-    <sheet name="CellType2_Patient" sheetId="3" r:id="rId3"/>
+    <sheet name="CellType1_Dataset" sheetId="5" r:id="rId2"/>
+    <sheet name="CellType1_Patient" sheetId="4" r:id="rId3"/>
+    <sheet name="CellType2_Dataset" sheetId="2" r:id="rId4"/>
+    <sheet name="CellType2_Patient" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="142">
   <si>
     <t>Peng</t>
   </si>
@@ -286,13 +288,190 @@
   </si>
   <si>
     <t>peng_T9</t>
+  </si>
+  <si>
+    <t>Lin</t>
+  </si>
+  <si>
+    <t>Muraro</t>
+  </si>
+  <si>
+    <t>Moncada</t>
+  </si>
+  <si>
+    <t>Epithelium</t>
+  </si>
+  <si>
+    <t>Endothelium</t>
+  </si>
+  <si>
+    <t>Myeloid</t>
+  </si>
+  <si>
+    <t>Stroma</t>
+  </si>
+  <si>
+    <t>Lymphocytes</t>
+  </si>
+  <si>
+    <t>D28-1</t>
+  </si>
+  <si>
+    <t>D28-2</t>
+  </si>
+  <si>
+    <t>D28-3</t>
+  </si>
+  <si>
+    <t>D28-4</t>
+  </si>
+  <si>
+    <t>D28-5</t>
+  </si>
+  <si>
+    <t>D28-6</t>
+  </si>
+  <si>
+    <t>D28-7</t>
+  </si>
+  <si>
+    <t>D28-8</t>
+  </si>
+  <si>
+    <t>D29-1</t>
+  </si>
+  <si>
+    <t>D29-2</t>
+  </si>
+  <si>
+    <t>D29-3</t>
+  </si>
+  <si>
+    <t>D29-4</t>
+  </si>
+  <si>
+    <t>D29-5</t>
+  </si>
+  <si>
+    <t>D29-6</t>
+  </si>
+  <si>
+    <t>D29-7</t>
+  </si>
+  <si>
+    <t>D29-8</t>
+  </si>
+  <si>
+    <t>D30-1</t>
+  </si>
+  <si>
+    <t>D30-2</t>
+  </si>
+  <si>
+    <t>D30-3</t>
+  </si>
+  <si>
+    <t>D30-4</t>
+  </si>
+  <si>
+    <t>D30-5</t>
+  </si>
+  <si>
+    <t>D30-6</t>
+  </si>
+  <si>
+    <t>D30-7</t>
+  </si>
+  <si>
+    <t>D30-8</t>
+  </si>
+  <si>
+    <t>D31-1</t>
+  </si>
+  <si>
+    <t>D31-2</t>
+  </si>
+  <si>
+    <t>D31-3</t>
+  </si>
+  <si>
+    <t>D31-4</t>
+  </si>
+  <si>
+    <t>D31-5</t>
+  </si>
+  <si>
+    <t>D31-6</t>
+  </si>
+  <si>
+    <t>D31-7</t>
+  </si>
+  <si>
+    <t>D31-8</t>
+  </si>
+  <si>
+    <t>MET01</t>
+  </si>
+  <si>
+    <t>MET02</t>
+  </si>
+  <si>
+    <t>MET03</t>
+  </si>
+  <si>
+    <t>MET04</t>
+  </si>
+  <si>
+    <t>MET05</t>
+  </si>
+  <si>
+    <t>MET06</t>
+  </si>
+  <si>
+    <t>P01</t>
+  </si>
+  <si>
+    <t>P02</t>
+  </si>
+  <si>
+    <t>P03</t>
+  </si>
+  <si>
+    <t>P04</t>
+  </si>
+  <si>
+    <t>P05</t>
+  </si>
+  <si>
+    <t>P06</t>
+  </si>
+  <si>
+    <t>P07</t>
+  </si>
+  <si>
+    <t>P08</t>
+  </si>
+  <si>
+    <t>P09</t>
+  </si>
+  <si>
+    <t>P10</t>
+  </si>
+  <si>
+    <t>PDAC_A</t>
+  </si>
+  <si>
+    <t>PDAC_B</t>
+  </si>
+  <si>
+    <t>PDAC_C</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,8 +487,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -328,8 +526,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -374,15 +584,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -697,20 +950,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C9202A5-B7CB-4533-81E1-F34720A166D4}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView zoomScale="110" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.796875" customWidth="1"/>
-    <col min="2" max="2" width="14.59765625" customWidth="1"/>
-    <col min="3" max="3" width="13.59765625" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="1" t="s">
         <v>4</v>
@@ -719,8 +972,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B2">
@@ -730,8 +983,8 @@
         <v>9250</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B3">
@@ -741,8 +994,8 @@
         <v>9250</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B4">
@@ -752,8 +1005,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B5">
@@ -761,6 +1014,39 @@
       </c>
       <c r="C5">
         <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>14926</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7">
+        <v>3028</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>4278</v>
       </c>
     </row>
   </sheetData>
@@ -769,576 +1055,200 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9659A17-0602-4129-8F8F-6C720F246129}">
-  <dimension ref="A1:AK5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36B48129-F798-1548-B0A9-E7374E0FA524}">
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScale="113" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="B1" t="s">
+    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="9"/>
+      <c r="B1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="6">
+        <v>10273</v>
+      </c>
+      <c r="C2" s="6">
+        <v>160</v>
+      </c>
+      <c r="D2" s="6">
+        <v>1594</v>
+      </c>
+      <c r="E2" s="6">
+        <v>2100</v>
+      </c>
+      <c r="F2" s="6">
+        <v>531</v>
+      </c>
+      <c r="G2" s="6">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="6">
+        <v>3669</v>
+      </c>
+      <c r="C3" s="6">
+        <v>149</v>
+      </c>
+      <c r="D3" s="6">
+        <v>147</v>
+      </c>
+      <c r="E3" s="6">
+        <v>69</v>
+      </c>
+      <c r="F3" s="6">
+        <v>183</v>
+      </c>
+      <c r="G3" s="6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1026</v>
+      </c>
+      <c r="C4" s="6">
+        <v>8</v>
+      </c>
+      <c r="D4" s="6">
+        <v>35</v>
+      </c>
+      <c r="E4" s="6">
+        <v>88</v>
+      </c>
+      <c r="F4" s="6">
+        <v>17</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="6">
+        <v>73466</v>
+      </c>
+      <c r="C5" s="6">
+        <v>17680</v>
+      </c>
+      <c r="D5" s="6">
+        <v>13691</v>
+      </c>
+      <c r="E5" s="6">
+        <v>18357</v>
+      </c>
+      <c r="F5">
+        <v>32191</v>
+      </c>
+      <c r="G5" s="6">
+        <v>613</v>
+      </c>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="6">
+        <v>3184</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1458</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1058</v>
+      </c>
+      <c r="E6" s="6">
+        <v>2861</v>
+      </c>
+      <c r="F6">
+        <v>590</v>
+      </c>
+      <c r="G6" s="6">
+        <v>99</v>
+      </c>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="6">
+        <v>2439</v>
+      </c>
+      <c r="C7" s="6">
+        <v>125</v>
+      </c>
+      <c r="D7" s="6">
+        <v>171</v>
+      </c>
+      <c r="E7" s="6">
+        <v>251</v>
+      </c>
+      <c r="F7">
+        <v>253</v>
+      </c>
+      <c r="G7" s="6">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R1" t="s">
-        <v>22</v>
-      </c>
-      <c r="S1" t="s">
-        <v>23</v>
-      </c>
-      <c r="T1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U1" t="s">
-        <v>25</v>
-      </c>
-      <c r="V1" t="s">
-        <v>26</v>
-      </c>
-      <c r="W1" t="s">
-        <v>27</v>
-      </c>
-      <c r="X1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI1" t="s">
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="6">
         <v>39</v>
       </c>
-      <c r="AJ1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>722</v>
-      </c>
-      <c r="C2">
-        <v>956</v>
-      </c>
-      <c r="D2">
-        <v>3009</v>
-      </c>
-      <c r="E2">
-        <v>3548</v>
-      </c>
-      <c r="F2">
-        <v>2422</v>
-      </c>
-      <c r="G2">
-        <v>7706</v>
-      </c>
-      <c r="H2">
-        <v>4290</v>
-      </c>
-      <c r="I2">
-        <v>205</v>
-      </c>
-      <c r="J2">
-        <v>613</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>3629</v>
-      </c>
-      <c r="M2">
-        <v>1701</v>
-      </c>
-      <c r="N2">
-        <v>322</v>
-      </c>
-      <c r="O2">
-        <v>2</v>
-      </c>
-      <c r="P2">
-        <v>479</v>
-      </c>
-      <c r="Q2">
-        <v>58</v>
-      </c>
-      <c r="R2">
-        <v>1366</v>
-      </c>
-      <c r="S2">
-        <v>6824</v>
-      </c>
-      <c r="T2">
-        <v>6830</v>
-      </c>
-      <c r="U2">
-        <v>3505</v>
-      </c>
-      <c r="V2">
-        <v>3752</v>
-      </c>
-      <c r="W2">
-        <v>248</v>
-      </c>
-      <c r="X2">
-        <v>3626</v>
-      </c>
-      <c r="Y2">
-        <v>31447</v>
-      </c>
-      <c r="Z2">
-        <v>34467</v>
-      </c>
-      <c r="AA2">
-        <v>1079</v>
-      </c>
-      <c r="AB2">
-        <v>2780</v>
-      </c>
-      <c r="AC2">
-        <v>996</v>
-      </c>
-      <c r="AD2">
-        <v>5318</v>
-      </c>
-      <c r="AE2">
-        <v>1708</v>
-      </c>
-      <c r="AF2">
-        <v>161</v>
-      </c>
-      <c r="AG2">
-        <v>5006</v>
-      </c>
-      <c r="AH2">
-        <v>2220</v>
-      </c>
-      <c r="AI2">
-        <v>1989</v>
-      </c>
-      <c r="AJ2">
-        <v>11105</v>
-      </c>
-      <c r="AK2">
-        <v>1909</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>89</v>
-      </c>
-      <c r="C3">
-        <v>92</v>
-      </c>
-      <c r="D3">
-        <v>203</v>
-      </c>
-      <c r="E3">
-        <v>693</v>
-      </c>
-      <c r="F3">
-        <v>24</v>
-      </c>
-      <c r="G3">
-        <v>140</v>
-      </c>
-      <c r="H3">
-        <v>81</v>
-      </c>
-      <c r="I3">
-        <v>10</v>
-      </c>
-      <c r="J3">
-        <v>99</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>157</v>
-      </c>
-      <c r="M3">
-        <v>161</v>
-      </c>
-      <c r="N3">
-        <v>14</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>8</v>
-      </c>
-      <c r="Q3">
-        <v>2</v>
-      </c>
-      <c r="R3">
-        <v>145</v>
-      </c>
-      <c r="S3">
-        <v>94</v>
-      </c>
-      <c r="T3">
-        <v>270</v>
-      </c>
-      <c r="U3">
-        <v>200</v>
-      </c>
-      <c r="V3">
-        <v>1027</v>
-      </c>
-      <c r="W3">
-        <v>254</v>
-      </c>
-      <c r="X3">
-        <v>65</v>
-      </c>
-      <c r="Y3">
-        <v>1756</v>
-      </c>
-      <c r="Z3">
-        <v>1069</v>
-      </c>
-      <c r="AA3">
-        <v>70</v>
-      </c>
-      <c r="AB3">
-        <v>38</v>
-      </c>
-      <c r="AC3">
-        <v>47</v>
-      </c>
-      <c r="AD3">
-        <v>372</v>
-      </c>
-      <c r="AE3">
-        <v>208</v>
-      </c>
-      <c r="AF3">
-        <v>15</v>
-      </c>
-      <c r="AG3">
-        <v>486</v>
-      </c>
-      <c r="AH3">
-        <v>182</v>
-      </c>
-      <c r="AI3">
-        <v>23</v>
-      </c>
-      <c r="AJ3">
-        <v>921</v>
-      </c>
-      <c r="AK3">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>20</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>37</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>20</v>
-      </c>
-      <c r="H4">
-        <v>10</v>
-      </c>
-      <c r="I4">
-        <v>26</v>
-      </c>
-      <c r="J4">
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8" s="6">
         <v>6</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>24</v>
-      </c>
-      <c r="M4">
-        <v>15</v>
-      </c>
-      <c r="N4">
-        <v>2</v>
-      </c>
-      <c r="O4">
-        <v>55</v>
-      </c>
-      <c r="P4">
-        <v>2</v>
-      </c>
-      <c r="Q4">
-        <v>79</v>
-      </c>
-      <c r="R4">
-        <v>8</v>
-      </c>
-      <c r="S4">
-        <v>66</v>
-      </c>
-      <c r="T4">
-        <v>313</v>
-      </c>
-      <c r="U4">
-        <v>19</v>
-      </c>
-      <c r="V4">
-        <v>30</v>
-      </c>
-      <c r="W4">
-        <v>79</v>
-      </c>
-      <c r="X4">
-        <v>18</v>
-      </c>
-      <c r="Y4">
-        <v>1457</v>
-      </c>
-      <c r="Z4">
-        <v>649</v>
-      </c>
-      <c r="AA4">
-        <v>10</v>
-      </c>
-      <c r="AB4">
-        <v>48</v>
-      </c>
-      <c r="AC4">
-        <v>70</v>
-      </c>
-      <c r="AD4">
-        <v>53</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>2</v>
-      </c>
-      <c r="AG4">
-        <v>29</v>
-      </c>
-      <c r="AH4">
-        <v>8</v>
-      </c>
-      <c r="AI4">
-        <v>8</v>
-      </c>
-      <c r="AJ4">
-        <v>77</v>
-      </c>
-      <c r="AK4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>6</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>5</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>15</v>
-      </c>
-      <c r="Z5">
-        <v>16</v>
-      </c>
-      <c r="AA5">
-        <v>1</v>
-      </c>
-      <c r="AB5">
-        <v>1</v>
-      </c>
-      <c r="AC5">
-        <v>1</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>1</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
+      <c r="H8" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1346,127 +1256,3239 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C850AAB-AFB2-A949-812D-A8EB5ED6BB2F}">
+  <dimension ref="A1:T93"/>
+  <sheetViews>
+    <sheetView zoomScale="107" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="B1" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>17</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3">
+        <v>21</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>14</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4">
+        <v>21</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>25</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5">
+        <v>23</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>18</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>17</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>11</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>14</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>15</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>72</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>69</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>64</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>69</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>63</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>65</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>70</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>53</v>
+      </c>
+      <c r="J17" s="5"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18">
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>52</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>7</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>55</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>68</v>
+      </c>
+      <c r="J20" s="5"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21">
+        <v>13</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>55</v>
+      </c>
+      <c r="J21" s="5"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22">
+        <v>17</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>51</v>
+      </c>
+      <c r="J22" s="5"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23">
+        <v>15</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>6</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>61</v>
+      </c>
+      <c r="J23" s="5"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A24" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24">
+        <v>14</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>6</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>61</v>
+      </c>
+      <c r="J24" s="5"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A25" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25">
+        <v>13</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>7</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>59</v>
+      </c>
+      <c r="J25" s="5"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A26" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>50</v>
+      </c>
+      <c r="J26" s="5"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A27" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B27">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>50</v>
+      </c>
+      <c r="J27" s="5"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A28" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28">
+        <v>23</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>52</v>
+      </c>
+      <c r="J28" s="5"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A29" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29">
+        <v>20</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>63</v>
+      </c>
+      <c r="J29" s="5"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A30" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30">
+        <v>22</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>55</v>
+      </c>
+      <c r="J30" s="5"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31">
+        <v>26</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>45</v>
+      </c>
+      <c r="J31" s="5"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B32">
+        <v>12</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>55</v>
+      </c>
+      <c r="J32" s="5"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A33" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B33">
+        <v>21</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>55</v>
+      </c>
+      <c r="J33" s="5"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A34" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B34">
+        <v>398</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>10</v>
+      </c>
+      <c r="E34">
+        <v>5</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>7</v>
+      </c>
+      <c r="J34" s="5"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A35" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B35">
+        <v>676</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>17</v>
+      </c>
+      <c r="E35">
+        <v>12</v>
+      </c>
+      <c r="F35">
+        <v>10</v>
+      </c>
+      <c r="G35">
+        <v>24</v>
+      </c>
+      <c r="J35" s="5"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A36" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B36">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>11</v>
+      </c>
+      <c r="D36">
+        <v>28</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>49</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="J36" s="5"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A37" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="B37">
+        <v>114</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>92</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>49</v>
+      </c>
+      <c r="G37">
+        <v>5</v>
+      </c>
+      <c r="J37" s="5"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A38" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B38">
+        <v>2625</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38">
+        <v>89</v>
+      </c>
+      <c r="E38">
+        <v>66</v>
+      </c>
+      <c r="F38">
+        <v>31</v>
+      </c>
+      <c r="G38">
+        <v>71</v>
+      </c>
+      <c r="J38" s="5"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A39" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B39">
+        <v>2189</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>89</v>
+      </c>
+      <c r="E39">
+        <v>31</v>
+      </c>
+      <c r="F39">
+        <v>113</v>
+      </c>
+      <c r="G39">
+        <v>71</v>
+      </c>
+      <c r="J39" s="5"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A40" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B40">
+        <v>172</v>
+      </c>
+      <c r="C40">
+        <v>13</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <v>191</v>
+      </c>
+      <c r="F40">
+        <v>21</v>
+      </c>
+      <c r="G40">
+        <v>7</v>
+      </c>
+      <c r="J40" s="5"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A41" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B41">
+        <v>74</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>14</v>
+      </c>
+      <c r="E41">
+        <v>4</v>
+      </c>
+      <c r="F41">
+        <v>50</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="J41" s="5"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A42" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="B42">
+        <v>569</v>
+      </c>
+      <c r="C42">
+        <v>32</v>
+      </c>
+      <c r="D42">
+        <v>22</v>
+      </c>
+      <c r="E42">
+        <v>165</v>
+      </c>
+      <c r="F42">
+        <v>3</v>
+      </c>
+      <c r="G42">
+        <v>39</v>
+      </c>
+      <c r="J42" s="5"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A43" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B43">
+        <v>210</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>78</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A44" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="B44">
+        <v>147</v>
+      </c>
+      <c r="C44">
+        <v>20</v>
+      </c>
+      <c r="D44">
+        <v>87</v>
+      </c>
+      <c r="E44">
+        <v>604</v>
+      </c>
+      <c r="F44">
+        <v>20</v>
+      </c>
+      <c r="G44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="B45">
+        <v>423</v>
+      </c>
+      <c r="C45">
+        <v>24</v>
+      </c>
+      <c r="D45">
+        <v>52</v>
+      </c>
+      <c r="E45">
+        <v>250</v>
+      </c>
+      <c r="F45">
+        <v>16</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A46" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B46">
+        <v>193</v>
+      </c>
+      <c r="C46">
+        <v>11</v>
+      </c>
+      <c r="D46">
+        <v>600</v>
+      </c>
+      <c r="E46">
+        <v>152</v>
+      </c>
+      <c r="F46">
+        <v>113</v>
+      </c>
+      <c r="G46">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A47" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B47">
+        <v>835</v>
+      </c>
+      <c r="C47">
+        <v>14</v>
+      </c>
+      <c r="D47">
+        <v>105</v>
+      </c>
+      <c r="E47">
+        <v>159</v>
+      </c>
+      <c r="F47">
+        <v>14</v>
+      </c>
+      <c r="G47">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A48" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="B48">
+        <v>327</v>
+      </c>
+      <c r="C48">
+        <v>25</v>
+      </c>
+      <c r="D48">
+        <v>289</v>
+      </c>
+      <c r="E48">
+        <v>242</v>
+      </c>
+      <c r="F48">
+        <v>11</v>
+      </c>
+      <c r="G48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="B49">
+        <v>1285</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>97</v>
+      </c>
+      <c r="E49">
+        <v>140</v>
+      </c>
+      <c r="F49">
+        <v>31</v>
+      </c>
+      <c r="G49">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="B50">
+        <v>1508</v>
+      </c>
+      <c r="C50">
+        <v>11</v>
+      </c>
+      <c r="D50">
+        <v>85</v>
+      </c>
+      <c r="E50">
+        <v>17</v>
+      </c>
+      <c r="F50">
+        <v>110</v>
+      </c>
+      <c r="G50">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B51">
+        <v>1347</v>
+      </c>
+      <c r="C51">
+        <v>128</v>
+      </c>
+      <c r="D51">
+        <v>46</v>
+      </c>
+      <c r="E51">
+        <v>25</v>
+      </c>
+      <c r="F51">
+        <v>66</v>
+      </c>
+      <c r="G51">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="B52">
+        <v>814</v>
+      </c>
+      <c r="C52">
+        <v>10</v>
+      </c>
+      <c r="D52">
+        <v>16</v>
+      </c>
+      <c r="E52">
+        <v>27</v>
+      </c>
+      <c r="F52">
+        <v>7</v>
+      </c>
+      <c r="G52">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B53" s="6">
+        <v>465</v>
+      </c>
+      <c r="C53" s="6">
+        <v>20</v>
+      </c>
+      <c r="D53" s="6">
+        <v>12</v>
+      </c>
+      <c r="E53" s="6">
+        <v>72</v>
+      </c>
+      <c r="F53">
+        <v>56</v>
+      </c>
+      <c r="G53" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B54" s="6">
+        <v>930</v>
+      </c>
+      <c r="C54" s="6">
+        <v>51</v>
+      </c>
+      <c r="D54" s="6">
+        <v>66</v>
+      </c>
+      <c r="E54" s="6">
+        <v>113</v>
+      </c>
+      <c r="F54">
+        <v>84</v>
+      </c>
+      <c r="G54" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B55" s="6">
+        <v>1044</v>
+      </c>
+      <c r="C55" s="6">
+        <v>54</v>
+      </c>
+      <c r="D55" s="6">
+        <v>93</v>
+      </c>
+      <c r="E55" s="6">
+        <v>66</v>
+      </c>
+      <c r="F55">
+        <v>113</v>
+      </c>
+      <c r="G55" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B56" s="6">
+        <v>39</v>
+      </c>
+      <c r="C56" s="6">
+        <v>1</v>
+      </c>
+      <c r="D56" s="6">
+        <v>0</v>
+      </c>
+      <c r="E56" s="6">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>3</v>
+      </c>
+      <c r="G56" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B57" s="6">
+        <v>1167</v>
+      </c>
+      <c r="C57" s="6">
+        <v>283</v>
+      </c>
+      <c r="D57" s="6">
+        <v>338</v>
+      </c>
+      <c r="E57" s="6">
+        <v>658</v>
+      </c>
+      <c r="F57">
+        <v>438</v>
+      </c>
+      <c r="G57" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B58" s="6">
+        <v>2017</v>
+      </c>
+      <c r="C58" s="6">
+        <v>1175</v>
+      </c>
+      <c r="D58" s="6">
+        <v>720</v>
+      </c>
+      <c r="E58" s="6">
+        <v>2203</v>
+      </c>
+      <c r="F58">
+        <v>152</v>
+      </c>
+      <c r="G58" s="6">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B59" s="6">
+        <v>3318</v>
+      </c>
+      <c r="C59" s="6">
+        <v>1206</v>
+      </c>
+      <c r="D59" s="6">
+        <v>162</v>
+      </c>
+      <c r="E59" s="6">
+        <v>779</v>
+      </c>
+      <c r="F59">
+        <v>34</v>
+      </c>
+      <c r="G59" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B60" s="6">
+        <v>2275</v>
+      </c>
+      <c r="C60" s="6">
+        <v>1036</v>
+      </c>
+      <c r="D60" s="6">
+        <v>76</v>
+      </c>
+      <c r="E60" s="6">
+        <v>69</v>
+      </c>
+      <c r="F60">
+        <v>33</v>
+      </c>
+      <c r="G60" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B61" s="6">
+        <v>1525</v>
+      </c>
+      <c r="C61" s="6">
+        <v>619</v>
+      </c>
+      <c r="D61" s="6">
+        <v>54</v>
+      </c>
+      <c r="E61" s="6">
+        <v>50</v>
+      </c>
+      <c r="F61">
+        <v>33</v>
+      </c>
+      <c r="G61" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B62" s="6">
+        <v>2648</v>
+      </c>
+      <c r="C62" s="6">
+        <v>781</v>
+      </c>
+      <c r="D62" s="6">
+        <v>205</v>
+      </c>
+      <c r="E62" s="6">
+        <v>458</v>
+      </c>
+      <c r="F62">
+        <v>81</v>
+      </c>
+      <c r="G62" s="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B63" s="6">
+        <v>1630</v>
+      </c>
+      <c r="C63" s="6">
+        <v>295</v>
+      </c>
+      <c r="D63" s="6">
+        <v>89</v>
+      </c>
+      <c r="E63" s="6">
+        <v>214</v>
+      </c>
+      <c r="F63">
+        <v>87</v>
+      </c>
+      <c r="G63" s="6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B64" s="6">
+        <v>6411</v>
+      </c>
+      <c r="C64" s="6">
+        <v>929</v>
+      </c>
+      <c r="D64" s="6">
+        <v>5</v>
+      </c>
+      <c r="E64" s="6">
+        <v>133</v>
+      </c>
+      <c r="F64">
+        <v>44</v>
+      </c>
+      <c r="G64" s="6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B65" s="6">
+        <v>3138</v>
+      </c>
+      <c r="C65" s="6">
+        <v>488</v>
+      </c>
+      <c r="D65" s="6">
+        <v>12</v>
+      </c>
+      <c r="E65" s="6">
+        <v>75</v>
+      </c>
+      <c r="F65">
+        <v>34</v>
+      </c>
+      <c r="G65" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B66" s="6">
+        <v>4486</v>
+      </c>
+      <c r="C66" s="6">
+        <v>832</v>
+      </c>
+      <c r="D66" s="6">
+        <v>20</v>
+      </c>
+      <c r="E66" s="6">
+        <v>340</v>
+      </c>
+      <c r="F66">
+        <v>48</v>
+      </c>
+      <c r="G66" s="6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B67" s="6">
+        <v>3603</v>
+      </c>
+      <c r="C67" s="6">
+        <v>1100</v>
+      </c>
+      <c r="D67" s="6">
+        <v>50</v>
+      </c>
+      <c r="E67" s="6">
+        <v>177</v>
+      </c>
+      <c r="F67">
+        <v>334</v>
+      </c>
+      <c r="G67" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B68" s="6">
+        <v>3066</v>
+      </c>
+      <c r="C68" s="6">
+        <v>1369</v>
+      </c>
+      <c r="D68" s="6">
+        <v>223</v>
+      </c>
+      <c r="E68" s="6">
+        <v>469</v>
+      </c>
+      <c r="F68">
+        <v>372</v>
+      </c>
+      <c r="G68" s="6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B69" s="6">
+        <v>3571</v>
+      </c>
+      <c r="C69" s="6">
+        <v>1093</v>
+      </c>
+      <c r="D69" s="6">
+        <v>196</v>
+      </c>
+      <c r="E69" s="6">
+        <v>359</v>
+      </c>
+      <c r="F69">
+        <v>41</v>
+      </c>
+      <c r="G69" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B70" s="6">
+        <v>374</v>
+      </c>
+      <c r="C70" s="6">
+        <v>406</v>
+      </c>
+      <c r="D70" s="6">
+        <v>313</v>
+      </c>
+      <c r="E70" s="6">
+        <v>350</v>
+      </c>
+      <c r="F70">
+        <v>1027</v>
+      </c>
+      <c r="G70" s="6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B71" s="6">
+        <v>407</v>
+      </c>
+      <c r="C71" s="6">
+        <v>169</v>
+      </c>
+      <c r="D71" s="6">
+        <v>187</v>
+      </c>
+      <c r="E71" s="6">
+        <v>346</v>
+      </c>
+      <c r="F71">
+        <v>759</v>
+      </c>
+      <c r="G71" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B72" s="6">
+        <v>1130</v>
+      </c>
+      <c r="C72" s="6">
+        <v>104</v>
+      </c>
+      <c r="D72" s="6">
+        <v>642</v>
+      </c>
+      <c r="E72" s="6">
+        <v>1778</v>
+      </c>
+      <c r="F72">
+        <v>468</v>
+      </c>
+      <c r="G72" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B73" s="6">
+        <v>344</v>
+      </c>
+      <c r="C73" s="6">
+        <v>251</v>
+      </c>
+      <c r="D73" s="6">
+        <v>708</v>
+      </c>
+      <c r="E73" s="6">
+        <v>396</v>
+      </c>
+      <c r="F73">
+        <v>3011</v>
+      </c>
+      <c r="G73" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B74" s="6">
+        <v>2276</v>
+      </c>
+      <c r="C74" s="6">
+        <v>693</v>
+      </c>
+      <c r="D74" s="6">
+        <v>583</v>
+      </c>
+      <c r="E74" s="6">
+        <v>735</v>
+      </c>
+      <c r="F74">
+        <v>1010</v>
+      </c>
+      <c r="G74" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B75" s="6">
+        <v>3229</v>
+      </c>
+      <c r="C75" s="6">
+        <v>194</v>
+      </c>
+      <c r="D75" s="6">
+        <v>167</v>
+      </c>
+      <c r="E75" s="6">
+        <v>304</v>
+      </c>
+      <c r="F75">
+        <v>185</v>
+      </c>
+      <c r="G75" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B76" s="6">
+        <v>1299</v>
+      </c>
+      <c r="C76" s="6">
+        <v>466</v>
+      </c>
+      <c r="D76" s="6">
+        <v>475</v>
+      </c>
+      <c r="E76" s="6">
+        <v>1331</v>
+      </c>
+      <c r="F76">
+        <v>3286</v>
+      </c>
+      <c r="G76" s="6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B77" s="6">
+        <v>678</v>
+      </c>
+      <c r="C77" s="6">
+        <v>451</v>
+      </c>
+      <c r="D77" s="6">
+        <v>1052</v>
+      </c>
+      <c r="E77" s="6">
+        <v>821</v>
+      </c>
+      <c r="F77">
+        <v>3001</v>
+      </c>
+      <c r="G77" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B78" s="6">
+        <v>3691</v>
+      </c>
+      <c r="C78" s="6">
+        <v>178</v>
+      </c>
+      <c r="D78" s="6">
+        <v>814</v>
+      </c>
+      <c r="E78" s="6">
+        <v>331</v>
+      </c>
+      <c r="F78">
+        <v>285</v>
+      </c>
+      <c r="G78" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B79" s="6">
+        <v>3114</v>
+      </c>
+      <c r="C79" s="6">
+        <v>397</v>
+      </c>
+      <c r="D79" s="6">
+        <v>221</v>
+      </c>
+      <c r="E79" s="6">
+        <v>1058</v>
+      </c>
+      <c r="F79">
+        <v>651</v>
+      </c>
+      <c r="G79" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B80" s="6">
+        <v>1277</v>
+      </c>
+      <c r="C80" s="6">
+        <v>1317</v>
+      </c>
+      <c r="D80" s="6">
+        <v>1619</v>
+      </c>
+      <c r="E80" s="6">
+        <v>1731</v>
+      </c>
+      <c r="F80">
+        <v>3406</v>
+      </c>
+      <c r="G80" s="6">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B81" s="6">
+        <v>574</v>
+      </c>
+      <c r="C81" s="6">
+        <v>152</v>
+      </c>
+      <c r="D81" s="6">
+        <v>171</v>
+      </c>
+      <c r="E81" s="6">
+        <v>87</v>
+      </c>
+      <c r="F81">
+        <v>276</v>
+      </c>
+      <c r="G81" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B82" s="6">
+        <v>2509</v>
+      </c>
+      <c r="C82" s="6">
+        <v>293</v>
+      </c>
+      <c r="D82" s="6">
+        <v>143</v>
+      </c>
+      <c r="E82" s="6">
+        <v>151</v>
+      </c>
+      <c r="F82">
+        <v>268</v>
+      </c>
+      <c r="G82" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B83" s="6">
+        <v>783</v>
+      </c>
+      <c r="C83" s="6">
+        <v>44</v>
+      </c>
+      <c r="D83" s="6">
+        <v>874</v>
+      </c>
+      <c r="E83" s="6">
+        <v>94</v>
+      </c>
+      <c r="F83">
+        <v>726</v>
+      </c>
+      <c r="G83" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B84" s="6">
+        <v>2950</v>
+      </c>
+      <c r="C84" s="6">
+        <v>41</v>
+      </c>
+      <c r="D84" s="6">
+        <v>652</v>
+      </c>
+      <c r="E84" s="6">
+        <v>147</v>
+      </c>
+      <c r="F84">
+        <v>1561</v>
+      </c>
+      <c r="G84" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B85" s="6">
+        <v>585</v>
+      </c>
+      <c r="C85" s="6">
+        <v>181</v>
+      </c>
+      <c r="D85" s="6">
+        <v>727</v>
+      </c>
+      <c r="E85" s="6">
+        <v>1357</v>
+      </c>
+      <c r="F85">
+        <v>4036</v>
+      </c>
+      <c r="G85" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B86" s="6">
+        <v>3092</v>
+      </c>
+      <c r="C86" s="6">
+        <v>974</v>
+      </c>
+      <c r="D86" s="6">
+        <v>547</v>
+      </c>
+      <c r="E86" s="6">
+        <v>1405</v>
+      </c>
+      <c r="F86">
+        <v>1564</v>
+      </c>
+      <c r="G86" s="6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B87" s="6">
+        <v>1419</v>
+      </c>
+      <c r="C87" s="6">
+        <v>177</v>
+      </c>
+      <c r="D87" s="6">
+        <v>765</v>
+      </c>
+      <c r="E87" s="6">
+        <v>458</v>
+      </c>
+      <c r="F87">
+        <v>630</v>
+      </c>
+      <c r="G87" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B88" s="6">
+        <v>1641</v>
+      </c>
+      <c r="C88" s="6">
+        <v>41</v>
+      </c>
+      <c r="D88" s="6">
+        <v>375</v>
+      </c>
+      <c r="E88" s="6">
+        <v>225</v>
+      </c>
+      <c r="F88">
+        <v>1592</v>
+      </c>
+      <c r="G88" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B89" s="6">
+        <v>704</v>
+      </c>
+      <c r="C89" s="6">
+        <v>602</v>
+      </c>
+      <c r="D89" s="6">
+        <v>490</v>
+      </c>
+      <c r="E89" s="6">
+        <v>417</v>
+      </c>
+      <c r="F89">
+        <v>1157</v>
+      </c>
+      <c r="G89" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B90" s="6">
+        <v>1231</v>
+      </c>
+      <c r="C90" s="6">
+        <v>478</v>
+      </c>
+      <c r="D90" s="6">
+        <v>386</v>
+      </c>
+      <c r="E90" s="6">
+        <v>365</v>
+      </c>
+      <c r="F90">
+        <v>365</v>
+      </c>
+      <c r="G90" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B91" s="6">
+        <v>1362</v>
+      </c>
+      <c r="C91" s="6">
+        <v>262</v>
+      </c>
+      <c r="D91" s="6">
+        <v>225</v>
+      </c>
+      <c r="E91" s="6">
+        <v>440</v>
+      </c>
+      <c r="F91">
+        <v>896</v>
+      </c>
+      <c r="G91" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B92" s="6">
+        <v>1504</v>
+      </c>
+      <c r="C92" s="6">
+        <v>44</v>
+      </c>
+      <c r="D92" s="6">
+        <v>262</v>
+      </c>
+      <c r="E92" s="6">
+        <v>124</v>
+      </c>
+      <c r="F92">
+        <v>820</v>
+      </c>
+      <c r="G92" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B93" s="6">
+        <v>1622</v>
+      </c>
+      <c r="C93" s="6">
+        <v>17</v>
+      </c>
+      <c r="D93" s="6">
+        <v>201</v>
+      </c>
+      <c r="E93" s="6">
+        <v>783</v>
+      </c>
+      <c r="F93">
+        <v>70</v>
+      </c>
+      <c r="G93" s="6">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9659A17-0602-4129-8F8F-6C720F246129}">
+  <dimension ref="A1:AK5"/>
+  <sheetViews>
+    <sheetView zoomScale="93" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+      <c r="B1" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK1" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="6">
+        <v>10273</v>
+      </c>
+      <c r="C2" s="6">
+        <v>160</v>
+      </c>
+      <c r="D2" s="6">
+        <v>1594</v>
+      </c>
+      <c r="E2" s="6">
+        <v>2100</v>
+      </c>
+      <c r="F2" s="6">
+        <v>531</v>
+      </c>
+      <c r="G2" s="6">
+        <v>268</v>
+      </c>
+      <c r="H2">
+        <v>4290</v>
+      </c>
+      <c r="I2">
+        <v>205</v>
+      </c>
+      <c r="J2">
+        <v>613</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>3629</v>
+      </c>
+      <c r="M2">
+        <v>1701</v>
+      </c>
+      <c r="N2">
+        <v>322</v>
+      </c>
+      <c r="O2">
+        <v>2</v>
+      </c>
+      <c r="P2">
+        <v>479</v>
+      </c>
+      <c r="Q2">
+        <v>58</v>
+      </c>
+      <c r="R2">
+        <v>1366</v>
+      </c>
+      <c r="S2">
+        <v>6824</v>
+      </c>
+      <c r="T2">
+        <v>6830</v>
+      </c>
+      <c r="U2">
+        <v>3505</v>
+      </c>
+      <c r="V2">
+        <v>3752</v>
+      </c>
+      <c r="W2">
+        <v>248</v>
+      </c>
+      <c r="X2">
+        <v>3626</v>
+      </c>
+      <c r="Y2">
+        <v>31447</v>
+      </c>
+      <c r="Z2">
+        <v>34467</v>
+      </c>
+      <c r="AA2">
+        <v>1079</v>
+      </c>
+      <c r="AB2">
+        <v>2780</v>
+      </c>
+      <c r="AC2">
+        <v>996</v>
+      </c>
+      <c r="AD2">
+        <v>5318</v>
+      </c>
+      <c r="AE2">
+        <v>1708</v>
+      </c>
+      <c r="AF2">
+        <v>161</v>
+      </c>
+      <c r="AG2">
+        <v>5006</v>
+      </c>
+      <c r="AH2">
+        <v>2220</v>
+      </c>
+      <c r="AI2">
+        <v>1989</v>
+      </c>
+      <c r="AJ2">
+        <v>11105</v>
+      </c>
+      <c r="AK2">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="6">
+        <v>3669</v>
+      </c>
+      <c r="C3" s="6">
+        <v>149</v>
+      </c>
+      <c r="D3" s="6">
+        <v>147</v>
+      </c>
+      <c r="E3" s="6">
+        <v>69</v>
+      </c>
+      <c r="F3" s="6">
+        <v>183</v>
+      </c>
+      <c r="G3" s="6">
+        <v>61</v>
+      </c>
+      <c r="H3">
+        <v>81</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="J3">
+        <v>99</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>157</v>
+      </c>
+      <c r="M3">
+        <v>161</v>
+      </c>
+      <c r="N3">
+        <v>14</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>8</v>
+      </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
+      <c r="R3">
+        <v>145</v>
+      </c>
+      <c r="S3">
+        <v>94</v>
+      </c>
+      <c r="T3">
+        <v>270</v>
+      </c>
+      <c r="U3">
+        <v>200</v>
+      </c>
+      <c r="V3">
+        <v>1027</v>
+      </c>
+      <c r="W3">
+        <v>254</v>
+      </c>
+      <c r="X3">
+        <v>65</v>
+      </c>
+      <c r="Y3">
+        <v>1756</v>
+      </c>
+      <c r="Z3">
+        <v>1069</v>
+      </c>
+      <c r="AA3">
+        <v>70</v>
+      </c>
+      <c r="AB3">
+        <v>38</v>
+      </c>
+      <c r="AC3">
+        <v>47</v>
+      </c>
+      <c r="AD3">
+        <v>372</v>
+      </c>
+      <c r="AE3">
+        <v>208</v>
+      </c>
+      <c r="AF3">
+        <v>15</v>
+      </c>
+      <c r="AG3">
+        <v>486</v>
+      </c>
+      <c r="AH3">
+        <v>182</v>
+      </c>
+      <c r="AI3">
+        <v>23</v>
+      </c>
+      <c r="AJ3">
+        <v>921</v>
+      </c>
+      <c r="AK3">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1026</v>
+      </c>
+      <c r="C4" s="6">
+        <v>8</v>
+      </c>
+      <c r="D4" s="6">
+        <v>35</v>
+      </c>
+      <c r="E4" s="6">
+        <v>88</v>
+      </c>
+      <c r="F4" s="6">
+        <v>17</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1854</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>26</v>
+      </c>
+      <c r="J4">
+        <v>6</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>24</v>
+      </c>
+      <c r="M4">
+        <v>15</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>55</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
+      </c>
+      <c r="Q4">
+        <v>79</v>
+      </c>
+      <c r="R4">
+        <v>8</v>
+      </c>
+      <c r="S4">
+        <v>66</v>
+      </c>
+      <c r="T4">
+        <v>313</v>
+      </c>
+      <c r="U4">
+        <v>19</v>
+      </c>
+      <c r="V4">
+        <v>30</v>
+      </c>
+      <c r="W4">
+        <v>79</v>
+      </c>
+      <c r="X4">
+        <v>18</v>
+      </c>
+      <c r="Y4">
+        <v>1457</v>
+      </c>
+      <c r="Z4">
+        <v>649</v>
+      </c>
+      <c r="AA4">
+        <v>10</v>
+      </c>
+      <c r="AB4">
+        <v>48</v>
+      </c>
+      <c r="AC4">
+        <v>70</v>
+      </c>
+      <c r="AD4">
+        <v>53</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>2</v>
+      </c>
+      <c r="AG4">
+        <v>29</v>
+      </c>
+      <c r="AH4">
+        <v>8</v>
+      </c>
+      <c r="AI4">
+        <v>8</v>
+      </c>
+      <c r="AJ4">
+        <v>77</v>
+      </c>
+      <c r="AK4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>6</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>5</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>15</v>
+      </c>
+      <c r="Z5">
+        <v>16</v>
+      </c>
+      <c r="AA5">
+        <v>1</v>
+      </c>
+      <c r="AB5">
+        <v>1</v>
+      </c>
+      <c r="AC5">
+        <v>1</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>1</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B148BEAD-59BE-4F3C-9957-111F3FD3B31C}">
   <dimension ref="A1:AK42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="B1" t="s">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="B1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AJ1" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AK1" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
         <v>42</v>
       </c>
       <c r="B2">
@@ -1578,8 +4600,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
         <v>43</v>
       </c>
       <c r="B3">
@@ -1691,8 +4713,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
         <v>44</v>
       </c>
       <c r="B4">
@@ -1804,8 +4826,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
         <v>45</v>
       </c>
       <c r="B5">
@@ -1917,8 +4939,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
         <v>46</v>
       </c>
       <c r="B6">
@@ -2030,8 +5052,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
         <v>47</v>
       </c>
       <c r="B7">
@@ -2143,8 +5165,8 @@
         <v>235</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
         <v>48</v>
       </c>
       <c r="B8">
@@ -2256,8 +5278,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A9" s="17" t="s">
         <v>49</v>
       </c>
       <c r="B9">
@@ -2369,8 +5391,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A10" s="17" t="s">
         <v>50</v>
       </c>
       <c r="B10">
@@ -2482,8 +5504,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A11" s="17" t="s">
         <v>51</v>
       </c>
       <c r="B11">
@@ -2595,8 +5617,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="s">
         <v>52</v>
       </c>
       <c r="B12">
@@ -2708,8 +5730,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="s">
         <v>53</v>
       </c>
       <c r="B13">
@@ -2821,8 +5843,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="s">
         <v>54</v>
       </c>
       <c r="B14">
@@ -2934,8 +5956,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A15" s="17" t="s">
         <v>55</v>
       </c>
       <c r="B15">
@@ -3047,8 +6069,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A16" s="17" t="s">
         <v>56</v>
       </c>
       <c r="B16">
@@ -3160,8 +6182,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A17" s="17" t="s">
         <v>57</v>
       </c>
       <c r="B17">
@@ -3273,8 +6295,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A18" s="17" t="s">
         <v>58</v>
       </c>
       <c r="B18">
@@ -3386,8 +6408,8 @@
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A19" s="17" t="s">
         <v>59</v>
       </c>
       <c r="B19">
@@ -3499,8 +6521,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A20" s="17" t="s">
         <v>60</v>
       </c>
       <c r="B20">
@@ -3612,8 +6634,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A21" s="17" t="s">
         <v>61</v>
       </c>
       <c r="B21">
@@ -3725,8 +6747,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A22" s="17" t="s">
         <v>62</v>
       </c>
       <c r="B22">
@@ -3838,8 +6860,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A23" s="17" t="s">
         <v>63</v>
       </c>
       <c r="B23">
@@ -3951,8 +6973,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A24" s="17" t="s">
         <v>64</v>
       </c>
       <c r="B24">
@@ -4064,8 +7086,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A25" s="17" t="s">
         <v>65</v>
       </c>
       <c r="B25">
@@ -4177,8 +7199,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A26" s="17" t="s">
         <v>66</v>
       </c>
       <c r="B26">
@@ -4290,8 +7312,8 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A27" s="17" t="s">
         <v>67</v>
       </c>
       <c r="B27">
@@ -4403,8 +7425,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A28" s="17" t="s">
         <v>68</v>
       </c>
       <c r="B28">
@@ -4516,8 +7538,8 @@
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A29" s="17" t="s">
         <v>69</v>
       </c>
       <c r="B29">
@@ -4629,8 +7651,8 @@
         <v>224</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A30" s="17" t="s">
         <v>70</v>
       </c>
       <c r="B30">
@@ -4742,8 +7764,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A31" s="17" t="s">
         <v>71</v>
       </c>
       <c r="B31">
@@ -4855,8 +7877,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A32" s="17" t="s">
         <v>72</v>
       </c>
       <c r="B32">
@@ -4968,8 +7990,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A33" s="17" t="s">
         <v>73</v>
       </c>
       <c r="B33">
@@ -5081,8 +8103,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A34" s="17" t="s">
         <v>74</v>
       </c>
       <c r="B34">
@@ -5194,8 +8216,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A35" s="17" t="s">
         <v>75</v>
       </c>
       <c r="B35">
@@ -5307,8 +8329,8 @@
         <v>161</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A36" s="17" t="s">
         <v>76</v>
       </c>
       <c r="B36">
@@ -5420,8 +8442,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A37" s="17" t="s">
         <v>77</v>
       </c>
       <c r="B37">
@@ -5533,8 +8555,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A38" s="17" t="s">
         <v>78</v>
       </c>
       <c r="B38">
@@ -5646,8 +8668,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A39" s="17" t="s">
         <v>79</v>
       </c>
       <c r="B39">
@@ -5759,8 +8781,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A40" s="17" t="s">
         <v>80</v>
       </c>
       <c r="B40">
@@ -5872,8 +8894,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A41" s="17" t="s">
         <v>81</v>
       </c>
       <c r="B41">
@@ -5985,8 +9007,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A42" s="17" t="s">
         <v>82</v>
       </c>
       <c r="B42">
